--- a/artfynd/A 59045-2022.xlsx
+++ b/artfynd/A 59045-2022.xlsx
@@ -3210,7 +3210,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>109013434</v>
+        <v>109013388</v>
       </c>
       <c r="B24" t="n">
         <v>56395</v>
@@ -3262,7 +3262,7 @@
         <v>7050915.045358492</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>15:06</t>
+          <t>15:05</t>
         </is>
       </c>
       <c r="AD24" t="b">
